--- a/natmiOut/OldD2/LR-pairs_lrc2p/F2-Gp9.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/F2-Gp9.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,12 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>Neutro</t>
   </si>
   <si>
@@ -92,12 +98,6 @@
   </si>
   <si>
     <t>Gp9</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.90538485635317</v>
+        <v>1.9141865</v>
       </c>
       <c r="H2">
-        <v>1.90538485635317</v>
+        <v>3.828373</v>
       </c>
       <c r="I2">
-        <v>0.6023667687402692</v>
+        <v>0.5304889167995069</v>
       </c>
       <c r="J2">
-        <v>0.6023667687402692</v>
+        <v>0.4469022060086147</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M2">
-        <v>1.18489655549896</v>
+        <v>0.8333575</v>
       </c>
       <c r="N2">
-        <v>1.18489655549896</v>
+        <v>1.666715</v>
       </c>
       <c r="O2">
-        <v>0.1096408149259829</v>
+        <v>0.06156808326285224</v>
       </c>
       <c r="P2">
-        <v>0.1096408149259829</v>
+        <v>0.04205974565022313</v>
       </c>
       <c r="Q2">
-        <v>2.257683953192752</v>
+        <v>1.59520167617375</v>
       </c>
       <c r="R2">
-        <v>2.257683953192752</v>
+        <v>6.380806704695</v>
       </c>
       <c r="S2">
-        <v>0.06604398340901423</v>
+        <v>0.03266118579953234</v>
       </c>
       <c r="T2">
-        <v>0.06604398340901423</v>
+        <v>0.01879659311524596</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.90538485635317</v>
+        <v>1.9141865</v>
       </c>
       <c r="H3">
-        <v>1.90538485635317</v>
+        <v>3.828373</v>
       </c>
       <c r="I3">
-        <v>0.6023667687402692</v>
+        <v>0.5304889167995069</v>
       </c>
       <c r="J3">
-        <v>0.6023667687402692</v>
+        <v>0.4469022060086147</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.94534957577113</v>
+        <v>1.495419666666667</v>
       </c>
       <c r="N3">
-        <v>3.94534957577113</v>
+        <v>4.486259</v>
       </c>
       <c r="O3">
-        <v>0.3650709765742142</v>
+        <v>0.1104809431129378</v>
       </c>
       <c r="P3">
-        <v>0.3650709765742142</v>
+        <v>0.1132112643499485</v>
       </c>
       <c r="Q3">
-        <v>7.517409334693714</v>
+        <v>2.862512137767834</v>
       </c>
       <c r="R3">
-        <v>7.517409334693714</v>
+        <v>17.175072826607</v>
       </c>
       <c r="S3">
-        <v>0.2199066245198639</v>
+        <v>0.05860891583897034</v>
       </c>
       <c r="T3">
-        <v>0.2199066245198639</v>
+        <v>0.05059436378301643</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,619 +652,2107 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.90538485635317</v>
+        <v>1.9141865</v>
       </c>
       <c r="H4">
-        <v>1.90538485635317</v>
+        <v>3.828373</v>
       </c>
       <c r="I4">
-        <v>0.6023667687402692</v>
+        <v>0.5304889167995069</v>
       </c>
       <c r="J4">
-        <v>0.6023667687402692</v>
+        <v>0.4469022060086147</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.67682928401999</v>
+        <v>4.310102666666666</v>
       </c>
       <c r="N4">
-        <v>5.67682928401999</v>
+        <v>12.930308</v>
       </c>
       <c r="O4">
-        <v>0.5252882084998031</v>
+        <v>0.3184284773974852</v>
       </c>
       <c r="P4">
-        <v>0.5252882084998031</v>
+        <v>0.3262978167587413</v>
       </c>
       <c r="Q4">
-        <v>10.8165445498739</v>
+        <v>8.250340338147334</v>
       </c>
       <c r="R4">
-        <v>10.8165445498739</v>
+        <v>49.502042028884</v>
       </c>
       <c r="S4">
-        <v>0.3164161608113912</v>
+        <v>0.1689227780527082</v>
       </c>
       <c r="T4">
-        <v>0.3164161608113912</v>
+        <v>0.1458232141252762</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.41258961714425</v>
+        <v>1.9141865</v>
       </c>
       <c r="H5">
-        <v>0.41258961714425</v>
+        <v>3.828373</v>
       </c>
       <c r="I5">
-        <v>0.1304357351567513</v>
+        <v>0.5304889167995069</v>
       </c>
       <c r="J5">
-        <v>0.1304357351567513</v>
+        <v>0.4469022060086147</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.18489655549896</v>
+        <v>6.318554666666667</v>
       </c>
       <c r="N5">
-        <v>1.18489655549896</v>
+        <v>18.955664</v>
       </c>
       <c r="O5">
-        <v>0.1096408149259829</v>
+        <v>0.4668120222332155</v>
       </c>
       <c r="P5">
-        <v>0.1096408149259829</v>
+        <v>0.4783483717798732</v>
       </c>
       <c r="Q5">
-        <v>0.4888760161888565</v>
+        <v>12.09489204244533</v>
       </c>
       <c r="R5">
-        <v>0.4888760161888565</v>
+        <v>72.569352254672</v>
       </c>
       <c r="S5">
-        <v>0.01430108029805589</v>
+        <v>0.2476386040234858</v>
       </c>
       <c r="T5">
-        <v>0.01430108029805589</v>
+        <v>0.2137749425890543</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.41258961714425</v>
+        <v>1.9141865</v>
       </c>
       <c r="H6">
-        <v>0.41258961714425</v>
+        <v>3.828373</v>
       </c>
       <c r="I6">
-        <v>0.1304357351567513</v>
+        <v>0.5304889167995069</v>
       </c>
       <c r="J6">
-        <v>0.1304357351567513</v>
+        <v>0.4469022060086147</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>3.94534957577113</v>
+        <v>0.432155</v>
       </c>
       <c r="N6">
-        <v>3.94534957577113</v>
+        <v>1.296465</v>
       </c>
       <c r="O6">
-        <v>0.3650709765742142</v>
+        <v>0.03192742013176567</v>
       </c>
       <c r="P6">
-        <v>0.3650709765742142</v>
+        <v>0.03271644410977074</v>
       </c>
       <c r="Q6">
-        <v>1.62781027096764</v>
+        <v>0.8272252669075</v>
       </c>
       <c r="R6">
-        <v>1.62781027096764</v>
+        <v>4.963351601445</v>
       </c>
       <c r="S6">
-        <v>0.04761830121385075</v>
+        <v>0.01693714252190314</v>
       </c>
       <c r="T6">
-        <v>0.04761830121385075</v>
+        <v>0.01462105104541409</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="D7" t="s">
-        <v>27</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.41258961714425</v>
+        <v>1.9141865</v>
       </c>
       <c r="H7">
-        <v>0.41258961714425</v>
+        <v>3.828373</v>
       </c>
       <c r="I7">
-        <v>0.1304357351567513</v>
+        <v>0.5304889167995069</v>
       </c>
       <c r="J7">
-        <v>0.1304357351567513</v>
+        <v>0.4469022060086147</v>
       </c>
       <c r="K7">
         <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M7">
-        <v>5.67682928401999</v>
+        <v>0.1459545</v>
       </c>
       <c r="N7">
-        <v>5.67682928401999</v>
+        <v>0.291909</v>
       </c>
       <c r="O7">
-        <v>0.5252882084998031</v>
+        <v>0.01078305386174357</v>
       </c>
       <c r="P7">
-        <v>0.5252882084998031</v>
+        <v>0.007366357351443399</v>
       </c>
       <c r="Q7">
-        <v>2.342200820887075</v>
+        <v>0.27938413351425</v>
       </c>
       <c r="R7">
-        <v>2.342200820887075</v>
+        <v>1.117536534057</v>
       </c>
       <c r="S7">
-        <v>0.06851635364484465</v>
+        <v>0.005720290562907086</v>
       </c>
       <c r="T7">
-        <v>0.06851635364484465</v>
+        <v>0.003292041350607831</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.501255996428986</v>
+        <v>0.524746</v>
       </c>
       <c r="H8">
-        <v>0.501255996428986</v>
+        <v>1.574238</v>
       </c>
       <c r="I8">
-        <v>0.1584666498601826</v>
+        <v>0.145425713291194</v>
       </c>
       <c r="J8">
-        <v>0.1584666498601826</v>
+        <v>0.1837674738022104</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M8">
-        <v>1.18489655549896</v>
+        <v>0.8333575</v>
       </c>
       <c r="N8">
-        <v>1.18489655549896</v>
+        <v>1.666715</v>
       </c>
       <c r="O8">
-        <v>0.1096408149259829</v>
+        <v>0.06156808326285224</v>
       </c>
       <c r="P8">
-        <v>0.1096408149259829</v>
+        <v>0.04205974565022313</v>
       </c>
       <c r="Q8">
-        <v>0.5939365035919044</v>
+        <v>0.437301014695</v>
       </c>
       <c r="R8">
-        <v>0.5939365035919044</v>
+        <v>2.62380608817</v>
       </c>
       <c r="S8">
-        <v>0.01737441262926083</v>
+        <v>0.008953582424471909</v>
       </c>
       <c r="T8">
-        <v>0.01737441262926083</v>
+        <v>0.007729213206905013</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.501255996428986</v>
+        <v>0.524746</v>
       </c>
       <c r="H9">
-        <v>0.501255996428986</v>
+        <v>1.574238</v>
       </c>
       <c r="I9">
-        <v>0.1584666498601826</v>
+        <v>0.145425713291194</v>
       </c>
       <c r="J9">
-        <v>0.1584666498601826</v>
+        <v>0.1837674738022104</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>3.94534957577113</v>
+        <v>1.495419666666667</v>
       </c>
       <c r="N9">
-        <v>3.94534957577113</v>
+        <v>4.486259</v>
       </c>
       <c r="O9">
-        <v>0.3650709765742142</v>
+        <v>0.1104809431129378</v>
       </c>
       <c r="P9">
-        <v>0.3650709765742142</v>
+        <v>0.1132112643499485</v>
       </c>
       <c r="Q9">
-        <v>1.977630132863835</v>
+        <v>0.7847154884046668</v>
       </c>
       <c r="R9">
-        <v>1.977630132863835</v>
+        <v>7.062439395642</v>
       </c>
       <c r="S9">
-        <v>0.05785157461890093</v>
+        <v>0.01606676995728281</v>
       </c>
       <c r="T9">
-        <v>0.05785157461890093</v>
+        <v>0.02080454805554428</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
         <v>22</v>
       </c>
-      <c r="B10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" t="s">
-        <v>27</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.501255996428986</v>
+        <v>0.524746</v>
       </c>
       <c r="H10">
-        <v>0.501255996428986</v>
+        <v>1.574238</v>
       </c>
       <c r="I10">
-        <v>0.1584666498601826</v>
+        <v>0.145425713291194</v>
       </c>
       <c r="J10">
-        <v>0.1584666498601826</v>
+        <v>0.1837674738022104</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>5.67682928401999</v>
+        <v>4.310102666666666</v>
       </c>
       <c r="N10">
-        <v>5.67682928401999</v>
+        <v>12.930308</v>
       </c>
       <c r="O10">
-        <v>0.5252882084998031</v>
+        <v>0.3184284773974852</v>
       </c>
       <c r="P10">
-        <v>0.5252882084998031</v>
+        <v>0.3262978167587413</v>
       </c>
       <c r="Q10">
-        <v>2.845544719318688</v>
+        <v>2.261709133922667</v>
       </c>
       <c r="R10">
-        <v>2.845544719318688</v>
+        <v>20.355382205304</v>
       </c>
       <c r="S10">
-        <v>0.0832406626120209</v>
+        <v>0.04630768845775813</v>
       </c>
       <c r="T10">
-        <v>0.0832406626120209</v>
+        <v>0.05996292549293043</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
       </c>
-      <c r="B11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>21</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.343933494675933</v>
+        <v>0.524746</v>
       </c>
       <c r="H11">
-        <v>0.343933494675933</v>
+        <v>1.574238</v>
       </c>
       <c r="I11">
-        <v>0.108730846242797</v>
+        <v>0.145425713291194</v>
       </c>
       <c r="J11">
-        <v>0.108730846242797</v>
+        <v>0.1837674738022104</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.18489655549896</v>
+        <v>6.318554666666667</v>
       </c>
       <c r="N11">
-        <v>1.18489655549896</v>
+        <v>18.955664</v>
       </c>
       <c r="O11">
-        <v>0.1096408149259829</v>
+        <v>0.4668120222332155</v>
       </c>
       <c r="P11">
-        <v>0.1096408149259829</v>
+        <v>0.4783483717798732</v>
       </c>
       <c r="Q11">
-        <v>0.4075256131622328</v>
+        <v>3.315636287114667</v>
       </c>
       <c r="R11">
-        <v>0.4075256131622328</v>
+        <v>29.840726584032</v>
       </c>
       <c r="S11">
-        <v>0.01192133858965201</v>
+        <v>0.06788647130617008</v>
       </c>
       <c r="T11">
-        <v>0.01192133858965201</v>
+        <v>0.08790487187938784</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
         <v>24</v>
       </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" t="s">
-        <v>26</v>
-      </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.343933494675933</v>
+        <v>0.524746</v>
       </c>
       <c r="H12">
-        <v>0.343933494675933</v>
+        <v>1.574238</v>
       </c>
       <c r="I12">
-        <v>0.108730846242797</v>
+        <v>0.145425713291194</v>
       </c>
       <c r="J12">
-        <v>0.108730846242797</v>
+        <v>0.1837674738022104</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>3.94534957577113</v>
+        <v>0.432155</v>
       </c>
       <c r="N12">
-        <v>3.94534957577113</v>
+        <v>1.296465</v>
       </c>
       <c r="O12">
-        <v>0.3650709765742142</v>
+        <v>0.03192742013176567</v>
       </c>
       <c r="P12">
-        <v>0.3650709765742142</v>
+        <v>0.03271644410977074</v>
       </c>
       <c r="Q12">
-        <v>1.356937867313174</v>
+        <v>0.22677160763</v>
       </c>
       <c r="R12">
-        <v>1.356937867313174</v>
+        <v>2.04094446867</v>
       </c>
       <c r="S12">
-        <v>0.03969447622159861</v>
+        <v>0.00464306784620965</v>
       </c>
       <c r="T12">
-        <v>0.03969447622159861</v>
+        <v>0.006012218285843775</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.524746</v>
+      </c>
+      <c r="H13">
+        <v>1.574238</v>
+      </c>
+      <c r="I13">
+        <v>0.145425713291194</v>
+      </c>
+      <c r="J13">
+        <v>0.1837674738022104</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.5</v>
+      </c>
+      <c r="M13">
+        <v>0.1459545</v>
+      </c>
+      <c r="N13">
+        <v>0.291909</v>
+      </c>
+      <c r="O13">
+        <v>0.01078305386174357</v>
+      </c>
+      <c r="P13">
+        <v>0.007366357351443399</v>
+      </c>
+      <c r="Q13">
+        <v>0.076589040057</v>
+      </c>
+      <c r="R13">
+        <v>0.459534240342</v>
+      </c>
+      <c r="S13">
+        <v>0.001568133299301422</v>
+      </c>
+      <c r="T13">
+        <v>0.001353696881599095</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G14">
+        <v>0.1234456666666667</v>
+      </c>
+      <c r="H14">
+        <v>0.370337</v>
+      </c>
+      <c r="I14">
+        <v>0.03421116907552791</v>
+      </c>
+      <c r="J14">
+        <v>0.04323100760208379</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.5</v>
+      </c>
+      <c r="M14">
+        <v>0.8333575</v>
+      </c>
+      <c r="N14">
+        <v>1.666715</v>
+      </c>
+      <c r="O14">
+        <v>0.06156808326285224</v>
+      </c>
+      <c r="P14">
+        <v>0.04205974565022313</v>
+      </c>
+      <c r="Q14">
+        <v>0.1028743721591667</v>
+      </c>
+      <c r="R14">
+        <v>0.617246232955</v>
+      </c>
+      <c r="S14">
+        <v>0.002106316106161618</v>
+      </c>
+      <c r="T14">
+        <v>0.001818285183946507</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G15">
+        <v>0.1234456666666667</v>
+      </c>
+      <c r="H15">
+        <v>0.370337</v>
+      </c>
+      <c r="I15">
+        <v>0.03421116907552791</v>
+      </c>
+      <c r="J15">
+        <v>0.04323100760208379</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>1.495419666666667</v>
+      </c>
+      <c r="N15">
+        <v>4.486259</v>
+      </c>
+      <c r="O15">
+        <v>0.1104809431129378</v>
+      </c>
+      <c r="P15">
+        <v>0.1132112643499485</v>
+      </c>
+      <c r="Q15">
+        <v>0.1846030776981112</v>
+      </c>
+      <c r="R15">
+        <v>1.661427699283</v>
+      </c>
+      <c r="S15">
+        <v>0.003779682224460497</v>
+      </c>
+      <c r="T15">
+        <v>0.004894237029754142</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.1234456666666667</v>
+      </c>
+      <c r="H16">
+        <v>0.370337</v>
+      </c>
+      <c r="I16">
+        <v>0.03421116907552791</v>
+      </c>
+      <c r="J16">
+        <v>0.04323100760208379</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>4.310102666666666</v>
+      </c>
+      <c r="N16">
+        <v>12.930308</v>
+      </c>
+      <c r="O16">
+        <v>0.3184284773974852</v>
+      </c>
+      <c r="P16">
+        <v>0.3262978167587413</v>
+      </c>
+      <c r="Q16">
+        <v>0.5320634970884445</v>
+      </c>
+      <c r="R16">
+        <v>4.788571473796001</v>
+      </c>
+      <c r="S16">
+        <v>0.01089381047870828</v>
+      </c>
+      <c r="T16">
+        <v>0.01410618339684049</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="B13" t="s">
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G17">
+        <v>0.1234456666666667</v>
+      </c>
+      <c r="H17">
+        <v>0.370337</v>
+      </c>
+      <c r="I17">
+        <v>0.03421116907552791</v>
+      </c>
+      <c r="J17">
+        <v>0.04323100760208379</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>6.318554666666667</v>
+      </c>
+      <c r="N17">
+        <v>18.955664</v>
+      </c>
+      <c r="O17">
+        <v>0.4668120222332155</v>
+      </c>
+      <c r="P17">
+        <v>0.4783483717798732</v>
+      </c>
+      <c r="Q17">
+        <v>0.7799981931964445</v>
+      </c>
+      <c r="R17">
+        <v>7.019983738768</v>
+      </c>
+      <c r="S17">
+        <v>0.01597018501910963</v>
+      </c>
+      <c r="T17">
+        <v>0.0206794820968601</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
         <v>24</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G18">
+        <v>0.1234456666666667</v>
+      </c>
+      <c r="H18">
+        <v>0.370337</v>
+      </c>
+      <c r="I18">
+        <v>0.03421116907552791</v>
+      </c>
+      <c r="J18">
+        <v>0.04323100760208379</v>
+      </c>
+      <c r="K18">
+        <v>2</v>
+      </c>
+      <c r="L18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M18">
+        <v>0.432155</v>
+      </c>
+      <c r="N18">
+        <v>1.296465</v>
+      </c>
+      <c r="O18">
+        <v>0.03192742013176567</v>
+      </c>
+      <c r="P18">
+        <v>0.03271644410977074</v>
+      </c>
+      <c r="Q18">
+        <v>0.05334766207833334</v>
+      </c>
+      <c r="R18">
+        <v>0.4801289587050001</v>
+      </c>
+      <c r="S18">
+        <v>0.001092274368273249</v>
+      </c>
+      <c r="T18">
+        <v>0.001414364844022648</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>25</v>
       </c>
-      <c r="D13" t="s">
-        <v>27</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>0.343933494675933</v>
-      </c>
-      <c r="H13">
-        <v>0.343933494675933</v>
-      </c>
-      <c r="I13">
-        <v>0.108730846242797</v>
-      </c>
-      <c r="J13">
-        <v>0.108730846242797</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>5.67682928401999</v>
-      </c>
-      <c r="N13">
-        <v>5.67682928401999</v>
-      </c>
-      <c r="O13">
-        <v>0.5252882084998031</v>
-      </c>
-      <c r="P13">
-        <v>0.5252882084998031</v>
-      </c>
-      <c r="Q13">
-        <v>1.95245173433167</v>
-      </c>
-      <c r="R13">
-        <v>1.95245173433167</v>
-      </c>
-      <c r="S13">
-        <v>0.05711503143154636</v>
-      </c>
-      <c r="T13">
-        <v>0.05711503143154636</v>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G19">
+        <v>0.1234456666666667</v>
+      </c>
+      <c r="H19">
+        <v>0.370337</v>
+      </c>
+      <c r="I19">
+        <v>0.03421116907552791</v>
+      </c>
+      <c r="J19">
+        <v>0.04323100760208379</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>0.5</v>
+      </c>
+      <c r="M19">
+        <v>0.1459545</v>
+      </c>
+      <c r="N19">
+        <v>0.291909</v>
+      </c>
+      <c r="O19">
+        <v>0.01078305386174357</v>
+      </c>
+      <c r="P19">
+        <v>0.007366357351443399</v>
+      </c>
+      <c r="Q19">
+        <v>0.0180174505555</v>
+      </c>
+      <c r="R19">
+        <v>0.108104703333</v>
+      </c>
+      <c r="S19">
+        <v>0.0003689008788146333</v>
+      </c>
+      <c r="T19">
+        <v>0.0003184550506599154</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G20">
+        <v>0.1536683333333333</v>
+      </c>
+      <c r="H20">
+        <v>0.461005</v>
+      </c>
+      <c r="I20">
+        <v>0.04258694108248363</v>
+      </c>
+      <c r="J20">
+        <v>0.05381506751849974</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0.5</v>
+      </c>
+      <c r="M20">
+        <v>0.8333575</v>
+      </c>
+      <c r="N20">
+        <v>1.666715</v>
+      </c>
+      <c r="O20">
+        <v>0.06156808326285224</v>
+      </c>
+      <c r="P20">
+        <v>0.04205974565022313</v>
+      </c>
+      <c r="Q20">
+        <v>0.1280606580958333</v>
+      </c>
+      <c r="R20">
+        <v>0.768363948575</v>
+      </c>
+      <c r="S20">
+        <v>0.002621996334476535</v>
+      </c>
+      <c r="T20">
+        <v>0.002263448051977684</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G21">
+        <v>0.1536683333333333</v>
+      </c>
+      <c r="H21">
+        <v>0.461005</v>
+      </c>
+      <c r="I21">
+        <v>0.04258694108248363</v>
+      </c>
+      <c r="J21">
+        <v>0.05381506751849974</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>1.495419666666667</v>
+      </c>
+      <c r="N21">
+        <v>4.486259</v>
+      </c>
+      <c r="O21">
+        <v>0.1104809431129378</v>
+      </c>
+      <c r="P21">
+        <v>0.1132112643499485</v>
+      </c>
+      <c r="Q21">
+        <v>0.2297986478105556</v>
+      </c>
+      <c r="R21">
+        <v>2.068187830295</v>
+      </c>
+      <c r="S21">
+        <v>0.004705045415087909</v>
+      </c>
+      <c r="T21">
+        <v>0.006092471834847202</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G22">
+        <v>0.1536683333333333</v>
+      </c>
+      <c r="H22">
+        <v>0.461005</v>
+      </c>
+      <c r="I22">
+        <v>0.04258694108248363</v>
+      </c>
+      <c r="J22">
+        <v>0.05381506751849974</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>4.310102666666666</v>
+      </c>
+      <c r="N22">
+        <v>12.930308</v>
+      </c>
+      <c r="O22">
+        <v>0.3184284773974852</v>
+      </c>
+      <c r="P22">
+        <v>0.3262978167587413</v>
+      </c>
+      <c r="Q22">
+        <v>0.6623262932822221</v>
+      </c>
+      <c r="R22">
+        <v>5.96093663954</v>
+      </c>
+      <c r="S22">
+        <v>0.01356089480591167</v>
+      </c>
+      <c r="T22">
+        <v>0.01755973904001072</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G23">
+        <v>0.1536683333333333</v>
+      </c>
+      <c r="H23">
+        <v>0.461005</v>
+      </c>
+      <c r="I23">
+        <v>0.04258694108248363</v>
+      </c>
+      <c r="J23">
+        <v>0.05381506751849974</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>6.318554666666667</v>
+      </c>
+      <c r="N23">
+        <v>18.955664</v>
+      </c>
+      <c r="O23">
+        <v>0.4668120222332155</v>
+      </c>
+      <c r="P23">
+        <v>0.4783483717798732</v>
+      </c>
+      <c r="Q23">
+        <v>0.9709617647022222</v>
+      </c>
+      <c r="R23">
+        <v>8.73865588232</v>
+      </c>
+      <c r="S23">
+        <v>0.01988009608744099</v>
+      </c>
+      <c r="T23">
+        <v>0.02574234992469829</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G24">
+        <v>0.1536683333333333</v>
+      </c>
+      <c r="H24">
+        <v>0.461005</v>
+      </c>
+      <c r="I24">
+        <v>0.04258694108248363</v>
+      </c>
+      <c r="J24">
+        <v>0.05381506751849974</v>
+      </c>
+      <c r="K24">
+        <v>2</v>
+      </c>
+      <c r="L24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M24">
+        <v>0.432155</v>
+      </c>
+      <c r="N24">
+        <v>1.296465</v>
+      </c>
+      <c r="O24">
+        <v>0.03192742013176567</v>
+      </c>
+      <c r="P24">
+        <v>0.03271644410977074</v>
+      </c>
+      <c r="Q24">
+        <v>0.06640853859166666</v>
+      </c>
+      <c r="R24">
+        <v>0.597676847325</v>
+      </c>
+      <c r="S24">
+        <v>0.001359691160067207</v>
+      </c>
+      <c r="T24">
+        <v>0.001760637648732536</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G25">
+        <v>0.1536683333333333</v>
+      </c>
+      <c r="H25">
+        <v>0.461005</v>
+      </c>
+      <c r="I25">
+        <v>0.04258694108248363</v>
+      </c>
+      <c r="J25">
+        <v>0.05381506751849974</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <v>0.5</v>
+      </c>
+      <c r="M25">
+        <v>0.1459545</v>
+      </c>
+      <c r="N25">
+        <v>0.291909</v>
+      </c>
+      <c r="O25">
+        <v>0.01078305386174357</v>
+      </c>
+      <c r="P25">
+        <v>0.007366357351443399</v>
+      </c>
+      <c r="Q25">
+        <v>0.0224285847575</v>
+      </c>
+      <c r="R25">
+        <v>0.134571508545</v>
+      </c>
+      <c r="S25">
+        <v>0.000459217279499321</v>
+      </c>
+      <c r="T25">
+        <v>0.0003964210182333235</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0.5479189999999999</v>
+      </c>
+      <c r="H26">
+        <v>1.643757</v>
+      </c>
+      <c r="I26">
+        <v>0.1518477728287547</v>
+      </c>
+      <c r="J26">
+        <v>0.1918827213132321</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26">
+        <v>0.5</v>
+      </c>
+      <c r="M26">
+        <v>0.8333575</v>
+      </c>
+      <c r="N26">
+        <v>1.666715</v>
+      </c>
+      <c r="O26">
+        <v>0.06156808326285224</v>
+      </c>
+      <c r="P26">
+        <v>0.04205974565022313</v>
+      </c>
+      <c r="Q26">
+        <v>0.4566124080424999</v>
+      </c>
+      <c r="R26">
+        <v>2.739674448255</v>
+      </c>
+      <c r="S26">
+        <v>0.009348976320799439</v>
+      </c>
+      <c r="T26">
+        <v>0.008070538453107193</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>0.5479189999999999</v>
+      </c>
+      <c r="H27">
+        <v>1.643757</v>
+      </c>
+      <c r="I27">
+        <v>0.1518477728287547</v>
+      </c>
+      <c r="J27">
+        <v>0.1918827213132321</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>1.495419666666667</v>
+      </c>
+      <c r="N27">
+        <v>4.486259</v>
+      </c>
+      <c r="O27">
+        <v>0.1104809431129378</v>
+      </c>
+      <c r="P27">
+        <v>0.1132112643499485</v>
+      </c>
+      <c r="Q27">
+        <v>0.8193688483403333</v>
+      </c>
+      <c r="R27">
+        <v>7.374319635063</v>
+      </c>
+      <c r="S27">
+        <v>0.01677628515171995</v>
+      </c>
+      <c r="T27">
+        <v>0.02172328548677982</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>0.5479189999999999</v>
+      </c>
+      <c r="H28">
+        <v>1.643757</v>
+      </c>
+      <c r="I28">
+        <v>0.1518477728287547</v>
+      </c>
+      <c r="J28">
+        <v>0.1918827213132321</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>4.310102666666666</v>
+      </c>
+      <c r="N28">
+        <v>12.930308</v>
+      </c>
+      <c r="O28">
+        <v>0.3184284773974852</v>
+      </c>
+      <c r="P28">
+        <v>0.3262978167587413</v>
+      </c>
+      <c r="Q28">
+        <v>2.361587143017333</v>
+      </c>
+      <c r="R28">
+        <v>21.254284287156</v>
+      </c>
+      <c r="S28">
+        <v>0.04835265509805958</v>
+      </c>
+      <c r="T28">
+        <v>0.06261091303823364</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>0.5479189999999999</v>
+      </c>
+      <c r="H29">
+        <v>1.643757</v>
+      </c>
+      <c r="I29">
+        <v>0.1518477728287547</v>
+      </c>
+      <c r="J29">
+        <v>0.1918827213132321</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>6.318554666666667</v>
+      </c>
+      <c r="N29">
+        <v>18.955664</v>
+      </c>
+      <c r="O29">
+        <v>0.4668120222332155</v>
+      </c>
+      <c r="P29">
+        <v>0.4783483717798732</v>
+      </c>
+      <c r="Q29">
+        <v>3.462056154405333</v>
+      </c>
+      <c r="R29">
+        <v>31.158505389648</v>
+      </c>
+      <c r="S29">
+        <v>0.07088436590580088</v>
+      </c>
+      <c r="T29">
+        <v>0.09178678731287576</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>0.5479189999999999</v>
+      </c>
+      <c r="H30">
+        <v>1.643757</v>
+      </c>
+      <c r="I30">
+        <v>0.1518477728287547</v>
+      </c>
+      <c r="J30">
+        <v>0.1918827213132321</v>
+      </c>
+      <c r="K30">
+        <v>2</v>
+      </c>
+      <c r="L30">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M30">
+        <v>0.432155</v>
+      </c>
+      <c r="N30">
+        <v>1.296465</v>
+      </c>
+      <c r="O30">
+        <v>0.03192742013176567</v>
+      </c>
+      <c r="P30">
+        <v>0.03271644410977074</v>
+      </c>
+      <c r="Q30">
+        <v>0.236785935445</v>
+      </c>
+      <c r="R30">
+        <v>2.131073419005</v>
+      </c>
+      <c r="S30">
+        <v>0.004848107639176562</v>
+      </c>
+      <c r="T30">
+        <v>0.006277720327475074</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>0.5479189999999999</v>
+      </c>
+      <c r="H31">
+        <v>1.643757</v>
+      </c>
+      <c r="I31">
+        <v>0.1518477728287547</v>
+      </c>
+      <c r="J31">
+        <v>0.1918827213132321</v>
+      </c>
+      <c r="K31">
+        <v>1</v>
+      </c>
+      <c r="L31">
+        <v>0.5</v>
+      </c>
+      <c r="M31">
+        <v>0.1459545</v>
+      </c>
+      <c r="N31">
+        <v>0.291909</v>
+      </c>
+      <c r="O31">
+        <v>0.01078305386174357</v>
+      </c>
+      <c r="P31">
+        <v>0.007366357351443399</v>
+      </c>
+      <c r="Q31">
+        <v>0.07997124368549999</v>
+      </c>
+      <c r="R31">
+        <v>0.4798274621129999</v>
+      </c>
+      <c r="S31">
+        <v>0.001637382713198263</v>
+      </c>
+      <c r="T31">
+        <v>0.001413476694760693</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>0.3443785</v>
+      </c>
+      <c r="H32">
+        <v>0.688757</v>
+      </c>
+      <c r="I32">
+        <v>0.09543948692253289</v>
+      </c>
+      <c r="J32">
+        <v>0.08040152375535911</v>
+      </c>
+      <c r="K32">
+        <v>1</v>
+      </c>
+      <c r="L32">
+        <v>0.5</v>
+      </c>
+      <c r="M32">
+        <v>0.8333575</v>
+      </c>
+      <c r="N32">
+        <v>1.666715</v>
+      </c>
+      <c r="O32">
+        <v>0.06156808326285224</v>
+      </c>
+      <c r="P32">
+        <v>0.04205974565022313</v>
+      </c>
+      <c r="Q32">
+        <v>0.28699040581375</v>
+      </c>
+      <c r="R32">
+        <v>1.147961623255</v>
+      </c>
+      <c r="S32">
+        <v>0.005876026277410402</v>
+      </c>
+      <c r="T32">
+        <v>0.003381667639040777</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>0.3443785</v>
+      </c>
+      <c r="H33">
+        <v>0.688757</v>
+      </c>
+      <c r="I33">
+        <v>0.09543948692253289</v>
+      </c>
+      <c r="J33">
+        <v>0.08040152375535911</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>1.495419666666667</v>
+      </c>
+      <c r="N33">
+        <v>4.486259</v>
+      </c>
+      <c r="O33">
+        <v>0.1104809431129378</v>
+      </c>
+      <c r="P33">
+        <v>0.1132112643499485</v>
+      </c>
+      <c r="Q33">
+        <v>0.5149903816771667</v>
+      </c>
+      <c r="R33">
+        <v>3.089942290063</v>
+      </c>
+      <c r="S33">
+        <v>0.01054424452541633</v>
+      </c>
+      <c r="T33">
+        <v>0.009102358160006626</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>0.3443785</v>
+      </c>
+      <c r="H34">
+        <v>0.688757</v>
+      </c>
+      <c r="I34">
+        <v>0.09543948692253289</v>
+      </c>
+      <c r="J34">
+        <v>0.08040152375535911</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>4.310102666666666</v>
+      </c>
+      <c r="N34">
+        <v>12.930308</v>
+      </c>
+      <c r="O34">
+        <v>0.3184284773974852</v>
+      </c>
+      <c r="P34">
+        <v>0.3262978167587413</v>
+      </c>
+      <c r="Q34">
+        <v>1.484306691192667</v>
+      </c>
+      <c r="R34">
+        <v>8.905840147155999</v>
+      </c>
+      <c r="S34">
+        <v>0.03039065050433935</v>
+      </c>
+      <c r="T34">
+        <v>0.02623484166544975</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>0.3443785</v>
+      </c>
+      <c r="H35">
+        <v>0.688757</v>
+      </c>
+      <c r="I35">
+        <v>0.09543948692253289</v>
+      </c>
+      <c r="J35">
+        <v>0.08040152375535911</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>6.318554666666667</v>
+      </c>
+      <c r="N35">
+        <v>18.955664</v>
+      </c>
+      <c r="O35">
+        <v>0.4668120222332155</v>
+      </c>
+      <c r="P35">
+        <v>0.4783483717798732</v>
+      </c>
+      <c r="Q35">
+        <v>2.175974378274666</v>
+      </c>
+      <c r="R35">
+        <v>13.055846269648</v>
+      </c>
+      <c r="S35">
+        <v>0.0445522998912081</v>
+      </c>
+      <c r="T35">
+        <v>0.03845993797699682</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>0.3443785</v>
+      </c>
+      <c r="H36">
+        <v>0.688757</v>
+      </c>
+      <c r="I36">
+        <v>0.09543948692253289</v>
+      </c>
+      <c r="J36">
+        <v>0.08040152375535911</v>
+      </c>
+      <c r="K36">
+        <v>2</v>
+      </c>
+      <c r="L36">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M36">
+        <v>0.432155</v>
+      </c>
+      <c r="N36">
+        <v>1.296465</v>
+      </c>
+      <c r="O36">
+        <v>0.03192742013176567</v>
+      </c>
+      <c r="P36">
+        <v>0.03271644410977074</v>
+      </c>
+      <c r="Q36">
+        <v>0.1488248906675</v>
+      </c>
+      <c r="R36">
+        <v>0.8929493440049999</v>
+      </c>
+      <c r="S36">
+        <v>0.003047136596135863</v>
+      </c>
+      <c r="T36">
+        <v>0.002630451958282611</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>0.3443785</v>
+      </c>
+      <c r="H37">
+        <v>0.688757</v>
+      </c>
+      <c r="I37">
+        <v>0.09543948692253289</v>
+      </c>
+      <c r="J37">
+        <v>0.08040152375535911</v>
+      </c>
+      <c r="K37">
+        <v>1</v>
+      </c>
+      <c r="L37">
+        <v>0.5</v>
+      </c>
+      <c r="M37">
+        <v>0.1459545</v>
+      </c>
+      <c r="N37">
+        <v>0.291909</v>
+      </c>
+      <c r="O37">
+        <v>0.01078305386174357</v>
+      </c>
+      <c r="P37">
+        <v>0.007366357351443399</v>
+      </c>
+      <c r="Q37">
+        <v>0.05026359177825</v>
+      </c>
+      <c r="R37">
+        <v>0.201054367113</v>
+      </c>
+      <c r="S37">
+        <v>0.001029129128022843</v>
+      </c>
+      <c r="T37">
+        <v>0.0005922663555825407</v>
       </c>
     </row>
   </sheetData>
